--- a/Arquivos xlsx/poste.xlsx
+++ b/Arquivos xlsx/poste.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D7DC94-CDD6-4788-A043-494081B99632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C25E75-7D11-46E8-B1F7-BD51F04F38B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,13 +679,13 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -695,7 +694,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>82</v>
       </c>
       <c r="C1" t="s">
@@ -709,6 +708,9 @@
       <c r="A2" t="s">
         <v>81</v>
       </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -720,9 +722,7 @@
       <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>83</v>
       </c>
       <c r="C16" t="s">
@@ -990,7 +990,7 @@
       <c r="A27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>83</v>
       </c>
       <c r="C27" t="s">
@@ -1070,7 +1070,7 @@
       <c r="A34" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>83</v>
       </c>
       <c r="C34" t="s">
@@ -1183,7 +1183,7 @@
       <c r="A44" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>83</v>
       </c>
       <c r="C44" t="s">
@@ -1362,7 +1362,7 @@
       <c r="A60" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>83</v>
       </c>
       <c r="C60" t="s">
@@ -1464,7 +1464,7 @@
       <c r="A69" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>83</v>
       </c>
       <c r="C69" t="s">

--- a/Arquivos xlsx/poste.xlsx
+++ b/Arquivos xlsx/poste.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A49D86E-751E-4E12-A9EF-6D9DD96C512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE097BA-2E67-455C-9345-06351AFA994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,18 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Coordenadas</t>
-  </si>
-  <si>
-    <t>Point</t>
   </si>
   <si>
     <t>11/1000</t>
@@ -88,10 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +427,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,39 +443,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">

--- a/Arquivos xlsx/poste.xlsx
+++ b/Arquivos xlsx/poste.xlsx
@@ -1,57 +1,255 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE097BA-2E67-455C-9345-06351AFA994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klayton.dias\Desktop\Tux.exe\Arquivos xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Coordenadas</t>
-  </si>
-  <si>
-    <t>11/1000</t>
-  </si>
-  <si>
-    <t>TR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+  <si>
+    <t>numero/capacidade</t>
+  </si>
+  <si>
+    <t>quantidade/tr</t>
+  </si>
+  <si>
+    <t>predio/none</t>
+  </si>
+  <si>
+    <t>coordenadas</t>
+  </si>
+  <si>
+    <t>-48.38297904,-27.461745,0</t>
+  </si>
+  <si>
+    <t>-48.38106964000001,-27.46170721,0</t>
+  </si>
+  <si>
+    <t>-48.38122990000001,-27.46139365000001,0</t>
+  </si>
+  <si>
+    <t>-48.38123962,-27.4609596,0</t>
+  </si>
+  <si>
+    <t>-48.38270478,-27.46071208,0</t>
+  </si>
+  <si>
+    <t>-48.38302966,-27.46066032,0</t>
+  </si>
+  <si>
+    <t>-48.38331096,-27.46062224,0</t>
+  </si>
+  <si>
+    <t>-48.38124532,-27.46071982,0</t>
+  </si>
+  <si>
+    <t>-48.38135228,-27.4606624,0</t>
+  </si>
+  <si>
+    <t>-48.38128522,-27.46011381,0</t>
+  </si>
+  <si>
+    <t>-48.38057578,-27.46089207,0</t>
+  </si>
+  <si>
+    <t>-48.38012885,-27.46096198,0</t>
+  </si>
+  <si>
+    <t>-48.37817485999999,-27.46085488,0</t>
+  </si>
+  <si>
+    <t>-48.37912168,-27.46110121,0</t>
+  </si>
+  <si>
+    <t>-48.38135697,-27.46189672,0</t>
+  </si>
+  <si>
+    <t>-48.38290393,-27.46149837,0</t>
+  </si>
+  <si>
+    <t>-48.38237688,-27.46154746,0</t>
+  </si>
+  <si>
+    <t>-48.38148102,-27.46164801,0</t>
+  </si>
+  <si>
+    <t>-48.38207379000001,-27.46081204,0</t>
+  </si>
+  <si>
+    <t>-48.38088624000001,-27.4608528,0</t>
+  </si>
+  <si>
+    <t>-48.38198694999999,-27.46035092,0</t>
+  </si>
+  <si>
+    <t>-48.3833817,-27.46169472,0</t>
+  </si>
+  <si>
+    <t>-48.38098314,-27.46193986,0</t>
+  </si>
+  <si>
+    <t>-48.38113602,-27.46176493,0</t>
+  </si>
+  <si>
+    <t>-48.38132512,-27.46044404,0</t>
+  </si>
+  <si>
+    <t>-48.38337332,-27.46144066,0</t>
+  </si>
+  <si>
+    <t>-48.38103812000001,-27.46217637,0</t>
+  </si>
+  <si>
+    <t>-48.38172744999999,-27.46186102,0</t>
+  </si>
+  <si>
+    <t>-48.3809818,-27.46235665,0</t>
+  </si>
+  <si>
+    <t>-48.38268768,-27.4617563,0</t>
+  </si>
+  <si>
+    <t>-48.38134624,-27.46098043,0</t>
+  </si>
+  <si>
+    <t>-48.37957129,-27.46103784,0</t>
+  </si>
+  <si>
+    <t>-48.38089932,-27.46228495,0</t>
+  </si>
+  <si>
+    <t>-48.38067703,-27.46194967,0</t>
+  </si>
+  <si>
+    <t>-48.38240337,-27.46178813,0</t>
+  </si>
+  <si>
+    <t>-48.38116787,-27.461305,0</t>
+  </si>
+  <si>
+    <t>-48.38266522,-27.46023876,0</t>
+  </si>
+  <si>
+    <t>-48.38118497000001,-27.4601266,0</t>
+  </si>
+  <si>
+    <t>-48.37821408999999,-27.46106581,0</t>
+  </si>
+  <si>
+    <t>-48.38121481,-27.46240811,0</t>
+  </si>
+  <si>
+    <t>-48.38197254,-27.46234177,0</t>
+  </si>
+  <si>
+    <t>-48.38240772,-27.46075671,0</t>
+  </si>
+  <si>
+    <t>-48.38159736,-27.4604131,0</t>
+  </si>
+  <si>
+    <t>-48.38306822,-27.46019622,0</t>
+  </si>
+  <si>
+    <t>-48.38342294,-27.46014921,0</t>
+  </si>
+  <si>
+    <t>-48.37985694,-27.46099352,0</t>
+  </si>
+  <si>
+    <t>-48.37875388999999,-27.46116934,0</t>
+  </si>
+  <si>
+    <t>-48.38318154,-27.4622314,0</t>
+  </si>
+  <si>
+    <t>-48.3836164,-27.46061183,0</t>
+  </si>
+  <si>
+    <t>-48.3836744,-27.46009774,0</t>
+  </si>
+  <si>
+    <t>-48.38356275,-27.46218589,0</t>
+  </si>
+  <si>
+    <t>-48.38242147,-27.46230875,0</t>
+  </si>
+  <si>
+    <t>-48.38281307,-27.46227008,0</t>
+  </si>
+  <si>
+    <t>-48.37827109,-27.4612101,0</t>
+  </si>
+  <si>
+    <t>-48.38162318,-27.46237926,0</t>
+  </si>
+  <si>
+    <t>-48.38042021,-27.46199579,0</t>
+  </si>
+  <si>
+    <t>-48.38311583,-27.46144244,0</t>
+  </si>
+  <si>
+    <t>-48.38135295000001,-27.46081472,0</t>
+  </si>
+  <si>
+    <t>10/150</t>
+  </si>
+  <si>
+    <t>10/300</t>
+  </si>
+  <si>
+    <t>10/600</t>
+  </si>
+  <si>
+    <t>11/300</t>
   </si>
   <si>
     <t>sim</t>
   </si>
   <si>
-    <t>11/300</t>
-  </si>
-  <si>
-    <t>-54.5739080, -20.5061009</t>
-  </si>
-  <si>
-    <t>-54.5737149, -20.5064496</t>
+    <t>12/300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/600 </t>
+  </si>
+  <si>
+    <t>11/600</t>
+  </si>
+  <si>
+    <t>12/600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -70,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,19 +276,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -177,7 +393,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -212,7 +427,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -247,16 +461,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -378,102 +596,523 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="D3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arquivos xlsx/poste.xlsx
+++ b/Arquivos xlsx/poste.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="117">
   <si>
     <t>numero/capacidade</t>
   </si>
@@ -33,196 +33,331 @@
     <t>coordenadas</t>
   </si>
   <si>
-    <t>-48.38297904,-27.461745,0</t>
-  </si>
-  <si>
-    <t>-48.38106964000001,-27.46170721,0</t>
-  </si>
-  <si>
-    <t>-48.38122990000001,-27.46139365000001,0</t>
-  </si>
-  <si>
-    <t>-48.38123962,-27.4609596,0</t>
-  </si>
-  <si>
-    <t>-48.38270478,-27.46071208,0</t>
-  </si>
-  <si>
-    <t>-48.38302966,-27.46066032,0</t>
-  </si>
-  <si>
-    <t>-48.38331096,-27.46062224,0</t>
-  </si>
-  <si>
-    <t>-48.38124532,-27.46071982,0</t>
-  </si>
-  <si>
-    <t>-48.38135228,-27.4606624,0</t>
-  </si>
-  <si>
-    <t>-48.38128522,-27.46011381,0</t>
-  </si>
-  <si>
-    <t>-48.38057578,-27.46089207,0</t>
-  </si>
-  <si>
-    <t>-48.38012885,-27.46096198,0</t>
-  </si>
-  <si>
-    <t>-48.37817485999999,-27.46085488,0</t>
-  </si>
-  <si>
-    <t>-48.37912168,-27.46110121,0</t>
-  </si>
-  <si>
-    <t>-48.38135697,-27.46189672,0</t>
-  </si>
-  <si>
-    <t>-48.38290393,-27.46149837,0</t>
-  </si>
-  <si>
-    <t>-48.38237688,-27.46154746,0</t>
-  </si>
-  <si>
-    <t>-48.38148102,-27.46164801,0</t>
-  </si>
-  <si>
-    <t>-48.38207379000001,-27.46081204,0</t>
-  </si>
-  <si>
-    <t>-48.38088624000001,-27.4608528,0</t>
-  </si>
-  <si>
-    <t>-48.38198694999999,-27.46035092,0</t>
-  </si>
-  <si>
-    <t>-48.3833817,-27.46169472,0</t>
-  </si>
-  <si>
-    <t>-48.38098314,-27.46193986,0</t>
-  </si>
-  <si>
-    <t>-48.38113602,-27.46176493,0</t>
-  </si>
-  <si>
-    <t>-48.38132512,-27.46044404,0</t>
-  </si>
-  <si>
-    <t>-48.38337332,-27.46144066,0</t>
-  </si>
-  <si>
-    <t>-48.38103812000001,-27.46217637,0</t>
-  </si>
-  <si>
-    <t>-48.38172744999999,-27.46186102,0</t>
-  </si>
-  <si>
-    <t>-48.3809818,-27.46235665,0</t>
-  </si>
-  <si>
-    <t>-48.38268768,-27.4617563,0</t>
-  </si>
-  <si>
-    <t>-48.38134624,-27.46098043,0</t>
-  </si>
-  <si>
-    <t>-48.37957129,-27.46103784,0</t>
-  </si>
-  <si>
-    <t>-48.38089932,-27.46228495,0</t>
-  </si>
-  <si>
-    <t>-48.38067703,-27.46194967,0</t>
-  </si>
-  <si>
-    <t>-48.38240337,-27.46178813,0</t>
-  </si>
-  <si>
-    <t>-48.38116787,-27.461305,0</t>
-  </si>
-  <si>
-    <t>-48.38266522,-27.46023876,0</t>
-  </si>
-  <si>
-    <t>-48.38118497000001,-27.4601266,0</t>
-  </si>
-  <si>
-    <t>-48.37821408999999,-27.46106581,0</t>
-  </si>
-  <si>
-    <t>-48.38121481,-27.46240811,0</t>
-  </si>
-  <si>
-    <t>-48.38197254,-27.46234177,0</t>
-  </si>
-  <si>
-    <t>-48.38240772,-27.46075671,0</t>
-  </si>
-  <si>
-    <t>-48.38159736,-27.4604131,0</t>
-  </si>
-  <si>
-    <t>-48.38306822,-27.46019622,0</t>
-  </si>
-  <si>
-    <t>-48.38342294,-27.46014921,0</t>
-  </si>
-  <si>
-    <t>-48.37985694,-27.46099352,0</t>
-  </si>
-  <si>
-    <t>-48.37875388999999,-27.46116934,0</t>
-  </si>
-  <si>
-    <t>-48.38318154,-27.4622314,0</t>
-  </si>
-  <si>
-    <t>-48.3836164,-27.46061183,0</t>
-  </si>
-  <si>
-    <t>-48.3836744,-27.46009774,0</t>
-  </si>
-  <si>
-    <t>-48.38356275,-27.46218589,0</t>
-  </si>
-  <si>
-    <t>-48.38242147,-27.46230875,0</t>
-  </si>
-  <si>
-    <t>-48.38281307,-27.46227008,0</t>
-  </si>
-  <si>
-    <t>-48.37827109,-27.4612101,0</t>
-  </si>
-  <si>
-    <t>-48.38162318,-27.46237926,0</t>
-  </si>
-  <si>
-    <t>-48.38042021,-27.46199579,0</t>
-  </si>
-  <si>
-    <t>-48.38311583,-27.46144244,0</t>
-  </si>
-  <si>
-    <t>-48.38135295000001,-27.46081472,0</t>
+    <t>-48.41756176,-27.50408524,0</t>
+  </si>
+  <si>
+    <t>-48.41991339,-27.50453339,0</t>
+  </si>
+  <si>
+    <t>-48.41991641,-27.50432017,0</t>
+  </si>
+  <si>
+    <t>-48.42269786000001,-27.50508385,0</t>
+  </si>
+  <si>
+    <t>-48.42348073,-27.50505797,0</t>
+  </si>
+  <si>
+    <t>-48.42309281,-27.50507314,0</t>
+  </si>
+  <si>
+    <t>-48.42236426,-27.50509217,0</t>
+  </si>
+  <si>
+    <t>-48.42196561,-27.5050999,0</t>
+  </si>
+  <si>
+    <t>-48.42155088,-27.50510526,0</t>
+  </si>
+  <si>
+    <t>-48.42119280000001,-27.50510883,0</t>
+  </si>
+  <si>
+    <t>-48.42127226,-27.50492445,0</t>
+  </si>
+  <si>
+    <t>-48.42078074999999,-27.50511983,0</t>
+  </si>
+  <si>
+    <t>-48.42033818000001,-27.50513113,0</t>
+  </si>
+  <si>
+    <t>-48.41998715,-27.50513678,0</t>
+  </si>
+  <si>
+    <t>-48.41954559,-27.50514897,0</t>
+  </si>
+  <si>
+    <t>-48.41910033999999,-27.50514867,0</t>
+  </si>
+  <si>
+    <t>-48.41876205000001,-27.50515997,0</t>
+  </si>
+  <si>
+    <t>-48.41832720000001,-27.5051796,0</t>
+  </si>
+  <si>
+    <t>-48.41794498,-27.50518525,0</t>
+  </si>
+  <si>
+    <t>-48.41755204,-27.50519239,0</t>
+  </si>
+  <si>
+    <t>-48.41716412,-27.5051915,0</t>
+  </si>
+  <si>
+    <t>-48.4167685,-27.50519507,0</t>
+  </si>
+  <si>
+    <t>-48.41638124999999,-27.5052254,0</t>
+  </si>
+  <si>
+    <t>-48.41594908,-27.50521529,0</t>
+  </si>
+  <si>
+    <t>-48.41554374,-27.50523551,0</t>
+  </si>
+  <si>
+    <t>-48.41515145999999,-27.50523313,0</t>
+  </si>
+  <si>
+    <t>-48.41471090999999,-27.50524859,0</t>
+  </si>
+  <si>
+    <t>-48.4143639,-27.50525752,0</t>
+  </si>
+  <si>
+    <t>-48.41390993,-27.50526287,0</t>
+  </si>
+  <si>
+    <t>-48.413519,-27.50528041,0</t>
+  </si>
+  <si>
+    <t>-48.41308113,-27.50528428,0</t>
+  </si>
+  <si>
+    <t>-48.41279949999999,-27.50528547,0</t>
+  </si>
+  <si>
+    <t>-48.41239615999999,-27.50529588,0</t>
+  </si>
+  <si>
+    <t>-48.42360646,-27.50433772,0</t>
+  </si>
+  <si>
+    <t>-48.42362691,-27.50458871,0</t>
+  </si>
+  <si>
+    <t>-48.42344116,-27.50428211,0</t>
+  </si>
+  <si>
+    <t>-48.42321586,-27.50449592,0</t>
+  </si>
+  <si>
+    <t>-48.42294898,-27.50450574,0</t>
+  </si>
+  <si>
+    <t>-48.42248462,-27.50450455,0</t>
+  </si>
+  <si>
+    <t>-48.42206955,-27.50450485,0</t>
+  </si>
+  <si>
+    <t>-48.42170644999999,-27.50451347,0</t>
+  </si>
+  <si>
+    <t>-48.42128634,-27.50452328,0</t>
+  </si>
+  <si>
+    <t>-48.42099734,-27.50436716,0</t>
+  </si>
+  <si>
+    <t>-48.42099365000001,-27.50412301,0</t>
+  </si>
+  <si>
+    <t>-48.42105299,-27.50459287,0</t>
+  </si>
+  <si>
+    <t>-48.42086456999999,-27.50451436,0</t>
+  </si>
+  <si>
+    <t>-48.42052627,-27.50448076,0</t>
+  </si>
+  <si>
+    <t>-48.42052091,-27.50415394,0</t>
+  </si>
+  <si>
+    <t>-48.42052259,-27.50385655,0</t>
+  </si>
+  <si>
+    <t>-48.42046323999999,-27.50453191,0</t>
+  </si>
+  <si>
+    <t>-48.42022587000001,-27.50453131,0</t>
+  </si>
+  <si>
+    <t>-48.41988221,-27.50394815,0</t>
+  </si>
+  <si>
+    <t>-48.41978565,-27.50456492,0</t>
+  </si>
+  <si>
+    <t>-48.41959454,-27.50460774,0</t>
+  </si>
+  <si>
+    <t>-48.41956135,-27.50430828,0</t>
+  </si>
+  <si>
+    <t>-48.41953721,-27.50407186,0</t>
+  </si>
+  <si>
+    <t>-48.4191788,-27.50404717,0</t>
+  </si>
+  <si>
+    <t>-48.41873456,-27.50406204,0</t>
+  </si>
+  <si>
+    <t>-48.41830507,-27.5040674,0</t>
+  </si>
+  <si>
+    <t>-48.41800131,-27.50407364,0</t>
+  </si>
+  <si>
+    <t>-48.41715842,-27.50408227,0</t>
+  </si>
+  <si>
+    <t>-48.41678895,-27.50410338,0</t>
+  </si>
+  <si>
+    <t>-48.41633162999999,-27.50409476,0</t>
+  </si>
+  <si>
+    <t>-48.41595478,-27.50410725,0</t>
+  </si>
+  <si>
+    <t>-48.41513135000001,-27.50412509,0</t>
+  </si>
+  <si>
+    <t>-48.41475617,-27.50413966,0</t>
+  </si>
+  <si>
+    <t>-48.41431595000001,-27.50413074,0</t>
+  </si>
+  <si>
+    <t>-48.41390893000001,-27.50412003,0</t>
+  </si>
+  <si>
+    <t>-48.41349151,-27.50415303999999,0</t>
+  </si>
+  <si>
+    <t>-48.41297116,-27.50415423,0</t>
+  </si>
+  <si>
+    <t>-48.41257788,-27.50415542,0</t>
+  </si>
+  <si>
+    <t>-48.41223691,-27.50416613,0</t>
+  </si>
+  <si>
+    <t>-48.41175545,-27.5041917,0</t>
+  </si>
+  <si>
+    <t>-48.41135547,-27.50418813,0</t>
+  </si>
+  <si>
+    <t>-48.41101382,-27.50420241,0</t>
+  </si>
+  <si>
+    <t>-48.41295473,-27.50438381,0</t>
+  </si>
+  <si>
+    <t>-48.41283303,-27.50477398,0</t>
+  </si>
+  <si>
+    <t>-48.41277737,-27.50470082,0</t>
+  </si>
+  <si>
+    <t>-48.41243673,-27.50468446,0</t>
+  </si>
+  <si>
+    <t>-48.41205049,-27.50470706,0</t>
+  </si>
+  <si>
+    <t>-48.41166291,-27.50472788,0</t>
+  </si>
+  <si>
+    <t>-48.41121767,-27.50473294,0</t>
+  </si>
+  <si>
+    <t>-48.41317568,-27.50471301,0</t>
+  </si>
+  <si>
+    <t>-48.41323268000001,-27.50470825,0</t>
+  </si>
+  <si>
+    <t>-48.41360919,-27.504669,0</t>
+  </si>
+  <si>
+    <t>-48.41402862,-27.50467376,0</t>
+  </si>
+  <si>
+    <t>-48.41440883,-27.50465324,0</t>
+  </si>
+  <si>
+    <t>-48.41480445,-27.50465681,0</t>
+  </si>
+  <si>
+    <t>-48.41517728,-27.50463569,0</t>
+  </si>
+  <si>
+    <t>-48.41564868,-27.50463212,0</t>
+  </si>
+  <si>
+    <t>-48.4159179,-27.50442098,0</t>
+  </si>
+  <si>
+    <t>-48.41600776,-27.50463718,0</t>
+  </si>
+  <si>
+    <t>-48.41675978,-27.5046122,0</t>
+  </si>
+  <si>
+    <t>-48.41705750999999,-27.50461042,0</t>
+  </si>
+  <si>
+    <t>-48.41748398,-27.50460001,0</t>
+  </si>
+  <si>
+    <t>-48.41792688,-27.50458633,0</t>
+  </si>
+  <si>
+    <t>-48.41830808999999,-27.50458216,0</t>
+  </si>
+  <si>
+    <t>-48.4187644,-27.50456462,0</t>
+  </si>
+  <si>
+    <t>-48.4191104,-27.50457443,0</t>
+  </si>
+  <si>
+    <t>11/300</t>
+  </si>
+  <si>
+    <t>-48.42388002679246,-27.50505917057271,0</t>
+  </si>
+  <si>
+    <t>-48.4240733388811,-27.50503930627234,0</t>
+  </si>
+  <si>
+    <t>-48.42398240522569,-27.50510664260485,0</t>
+  </si>
+  <si>
+    <t>10/300</t>
+  </si>
+  <si>
+    <t>-48.42376575781207,-27.50480967460948,0</t>
+  </si>
+  <si>
+    <t>-48.42367480467659,-27.50448137413948,0</t>
   </si>
   <si>
     <t>10/150</t>
   </si>
   <si>
-    <t>10/300</t>
-  </si>
-  <si>
-    <t>10/600</t>
-  </si>
-  <si>
-    <t>11/300</t>
-  </si>
-  <si>
     <t>sim</t>
   </si>
   <si>
-    <t>12/300</t>
+    <t xml:space="preserve">11/300 </t>
   </si>
   <si>
     <t xml:space="preserve">12/600 </t>
@@ -232,13 +367,16 @@
   </si>
   <si>
     <t>12/600</t>
+  </si>
+  <si>
+    <t>12/1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,14 +388,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,12 +425,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,21 +732,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,122 +757,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -754,7 +882,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -762,7 +890,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -770,7 +898,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -778,7 +906,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -786,7 +914,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -794,7 +922,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -802,7 +930,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -810,7 +938,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -818,7 +946,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -826,7 +954,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -834,7 +965,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -842,7 +973,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -850,10 +981,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -861,10 +989,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -872,10 +997,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -883,10 +1005,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -894,10 +1013,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -905,7 +1021,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -913,7 +1029,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -921,7 +1037,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -929,7 +1048,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -937,7 +1056,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -945,7 +1064,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -953,7 +1072,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -961,7 +1080,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -969,7 +1088,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -977,7 +1099,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -985,7 +1107,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -993,7 +1115,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1001,7 +1123,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1009,7 +1131,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -1017,7 +1139,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1025,7 +1147,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1033,7 +1155,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -1041,7 +1163,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -1049,7 +1171,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -1057,7 +1179,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1065,7 +1187,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1073,7 +1198,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -1081,7 +1206,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -1089,7 +1214,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -1097,7 +1222,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -1105,14 +1233,387 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>